--- a/3_Component_Results/EXPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ME</t>
   </si>
@@ -44,18 +44,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
 </sst>
 </file>
@@ -413,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.8442175446824474</v>
+        <v>0.9996811035619473</v>
       </c>
       <c r="C2">
-        <v>0.9386968164652044</v>
+        <v>1.056680008865375</v>
       </c>
       <c r="D2">
-        <v>1.072380262307755</v>
+        <v>1.535658889322983</v>
       </c>
       <c r="E2">
-        <v>1.03555794734421</v>
+        <v>1.239217046898155</v>
       </c>
       <c r="F2">
-        <v>0.6223700354793469</v>
+        <v>0.7599672122005358</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,22 +455,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.6608472067373802</v>
+        <v>0.6541542769893847</v>
       </c>
       <c r="C3">
-        <v>0.8203550611171555</v>
+        <v>0.8341207046287089</v>
       </c>
       <c r="D3">
-        <v>0.8328656445505481</v>
+        <v>0.8907909344799998</v>
       </c>
       <c r="E3">
-        <v>0.9126147295274979</v>
+        <v>0.9438172145495122</v>
       </c>
       <c r="F3">
-        <v>0.6551021536545117</v>
+        <v>0.7171495399430653</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -490,22 +478,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6142330122735634</v>
+        <v>0.7114172426094275</v>
       </c>
       <c r="C4">
-        <v>0.7977619411209882</v>
+        <v>0.7114172426094275</v>
       </c>
       <c r="D4">
-        <v>0.8287543708537872</v>
+        <v>0.7732681336315609</v>
       </c>
       <c r="E4">
-        <v>0.9103594734245298</v>
+        <v>0.8793566589453684</v>
       </c>
       <c r="F4">
-        <v>0.7017942025360674</v>
+        <v>0.5662017031583992</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -513,111 +501,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.653188252001597</v>
+        <v>0.9993615165702219</v>
       </c>
       <c r="C5">
-        <v>0.8404378538675804</v>
+        <v>0.9993615165702219</v>
       </c>
       <c r="D5">
-        <v>0.9015018510310547</v>
+        <v>1.585080129446412</v>
       </c>
       <c r="E5">
-        <v>0.949474513102408</v>
+        <v>1.258999654267789</v>
       </c>
       <c r="F5">
-        <v>0.7227251582212759</v>
+        <v>1.082918915380905</v>
       </c>
       <c r="G5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.5995522738885471</v>
-      </c>
-      <c r="C6">
-        <v>0.7981403756215748</v>
-      </c>
-      <c r="D6">
-        <v>0.8139053568029777</v>
-      </c>
-      <c r="E6">
-        <v>0.902167033759812</v>
-      </c>
-      <c r="F6">
-        <v>0.7105885101473208</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0.4739184962899534</v>
-      </c>
-      <c r="C7">
-        <v>0.7509512476991744</v>
-      </c>
-      <c r="D7">
-        <v>0.7921400058317272</v>
-      </c>
-      <c r="E7">
-        <v>0.8900224749025876</v>
-      </c>
-      <c r="F7">
-        <v>0.8137146155073838</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0.8246646006064594</v>
-      </c>
-      <c r="C8">
-        <v>0.8246646006064594</v>
-      </c>
-      <c r="D8">
-        <v>1.04755889617066</v>
-      </c>
-      <c r="E8">
-        <v>1.023503246780713</v>
-      </c>
-      <c r="F8">
-        <v>0.6999878024434895</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>0.2152880572690481</v>
-      </c>
-      <c r="C9">
-        <v>0.2152880572690481</v>
-      </c>
-      <c r="D9">
-        <v>0.04634894760268093</v>
-      </c>
-      <c r="E9">
-        <v>0.2152880572690481</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/EXPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -401,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.9996811035619473</v>
+        <v>0.5224929946896146</v>
       </c>
       <c r="C2">
-        <v>1.056680008865375</v>
+        <v>1.898968271571221</v>
       </c>
       <c r="D2">
-        <v>1.535658889322983</v>
+        <v>15.67148254258704</v>
       </c>
       <c r="E2">
-        <v>1.239217046898155</v>
+        <v>3.958722337142003</v>
       </c>
       <c r="F2">
-        <v>0.7599672122005358</v>
+        <v>3.967451592372942</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -455,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.6541542769893847</v>
+        <v>0.4961555363655573</v>
       </c>
       <c r="C3">
-        <v>0.8341207046287089</v>
+        <v>1.850890984938442</v>
       </c>
       <c r="D3">
-        <v>0.8907909344799998</v>
+        <v>15.31652666909897</v>
       </c>
       <c r="E3">
-        <v>0.9438172145495122</v>
+        <v>3.913633435708941</v>
       </c>
       <c r="F3">
-        <v>0.7171495399430653</v>
+        <v>3.925922114836308</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -478,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.7114172426094275</v>
+        <v>0.6562009383051112</v>
       </c>
       <c r="C4">
-        <v>0.7114172426094275</v>
+        <v>1.755547849851764</v>
       </c>
       <c r="D4">
-        <v>0.7732681336315609</v>
+        <v>14.91514394174393</v>
       </c>
       <c r="E4">
-        <v>0.8793566589453684</v>
+        <v>3.862012939095871</v>
       </c>
       <c r="F4">
-        <v>0.5662017031583992</v>
+        <v>3.849856378757894</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,22 +519,160 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.9993615165702219</v>
+        <v>0.5233911015648834</v>
       </c>
       <c r="C5">
-        <v>0.9993615165702219</v>
+        <v>1.855814880858909</v>
       </c>
       <c r="D5">
-        <v>1.585080129446412</v>
+        <v>15.64356210993208</v>
       </c>
       <c r="E5">
-        <v>1.258999654267789</v>
+        <v>3.955194320122853</v>
       </c>
       <c r="F5">
-        <v>1.082918915380905</v>
+        <v>3.966808199306541</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.7469272014119552</v>
+      </c>
+      <c r="C6">
+        <v>1.819658143763748</v>
+      </c>
+      <c r="D6">
+        <v>15.50982749350374</v>
+      </c>
+      <c r="E6">
+        <v>3.938251832159003</v>
+      </c>
+      <c r="F6">
+        <v>3.913643877732932</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.6021480811658927</v>
+      </c>
+      <c r="C7">
+        <v>1.875207305608213</v>
+      </c>
+      <c r="D7">
+        <v>16.24141422234426</v>
+      </c>
+      <c r="E7">
+        <v>4.030063798793297</v>
+      </c>
+      <c r="F7">
+        <v>4.034328036793712</v>
+      </c>
+      <c r="G7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.7822106663771212</v>
+      </c>
+      <c r="C8">
+        <v>1.836403048259028</v>
+      </c>
+      <c r="D8">
+        <v>16.36623743788394</v>
+      </c>
+      <c r="E8">
+        <v>4.045520663386103</v>
+      </c>
+      <c r="F8">
+        <v>4.019744080550121</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.5940989821051248</v>
+      </c>
+      <c r="C9">
+        <v>1.932689778747934</v>
+      </c>
+      <c r="D9">
+        <v>16.9873845567875</v>
+      </c>
+      <c r="E9">
+        <v>4.121575494490851</v>
+      </c>
+      <c r="F9">
+        <v>4.131849360674751</v>
+      </c>
+      <c r="G9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.830600775663463</v>
+      </c>
+      <c r="C10">
+        <v>1.865149275164063</v>
+      </c>
+      <c r="D10">
+        <v>17.27800395215996</v>
+      </c>
+      <c r="E10">
+        <v>4.156681843990463</v>
+      </c>
+      <c r="F10">
+        <v>4.12752147190327</v>
+      </c>
+      <c r="G10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.5950944418594691</v>
+      </c>
+      <c r="C11">
+        <v>1.827659872411423</v>
+      </c>
+      <c r="D11">
+        <v>17.20024814321981</v>
+      </c>
+      <c r="E11">
+        <v>4.147318186879301</v>
+      </c>
+      <c r="F11">
+        <v>4.161016494713655</v>
+      </c>
+      <c r="G11">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/EXPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5224929946896146</v>
+        <v>0.1091893978781611</v>
       </c>
       <c r="C2">
-        <v>1.898968271571221</v>
+        <v>2.452823248062764</v>
       </c>
       <c r="D2">
-        <v>15.67148254258704</v>
+        <v>19.2641810097944</v>
       </c>
       <c r="E2">
-        <v>3.958722337142003</v>
+        <v>4.389097972225546</v>
       </c>
       <c r="F2">
-        <v>3.967451592372942</v>
+        <v>4.448262992299666</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.4961555363655573</v>
+        <v>0.5977652040503706</v>
       </c>
       <c r="C3">
-        <v>1.850890984938442</v>
+        <v>1.904146959540057</v>
       </c>
       <c r="D3">
-        <v>15.31652666909897</v>
+        <v>17.98508047146703</v>
       </c>
       <c r="E3">
-        <v>3.913633435708941</v>
+        <v>4.240882039324724</v>
       </c>
       <c r="F3">
-        <v>3.925922114836308</v>
+        <v>4.258099040526254</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6562009383051112</v>
+        <v>0.4593734525495876</v>
       </c>
       <c r="C4">
-        <v>1.755547849851764</v>
+        <v>2.116234692474444</v>
       </c>
       <c r="D4">
-        <v>14.91514394174393</v>
+        <v>19.0453471993615</v>
       </c>
       <c r="E4">
-        <v>3.862012939095871</v>
+        <v>4.364097524043373</v>
       </c>
       <c r="F4">
-        <v>3.849856378757894</v>
+        <v>4.403211772525009</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.5233911015648834</v>
+        <v>0.6755236604910957</v>
       </c>
       <c r="C5">
-        <v>1.855814880858909</v>
+        <v>2.051568815471395</v>
       </c>
       <c r="D5">
-        <v>15.64356210993208</v>
+        <v>19.18090159300843</v>
       </c>
       <c r="E5">
-        <v>3.955194320122853</v>
+        <v>4.379600620263043</v>
       </c>
       <c r="F5">
-        <v>3.966808199306541</v>
+        <v>4.392263718217674</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.7469272014119552</v>
+        <v>0.4638331138298176</v>
       </c>
       <c r="C6">
-        <v>1.819658143763748</v>
+        <v>2.158697177759521</v>
       </c>
       <c r="D6">
-        <v>15.50982749350374</v>
+        <v>20.1550692283716</v>
       </c>
       <c r="E6">
-        <v>3.938251832159003</v>
+        <v>4.489439745488473</v>
       </c>
       <c r="F6">
-        <v>3.913643877732932</v>
+        <v>4.534650022118768</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.6021480811658927</v>
+        <v>0.7503312117146663</v>
       </c>
       <c r="C7">
-        <v>1.875207305608213</v>
+        <v>2.109841542719643</v>
       </c>
       <c r="D7">
-        <v>16.24141422234426</v>
+        <v>20.06410736424963</v>
       </c>
       <c r="E7">
-        <v>4.030063798793297</v>
+        <v>4.479297641846279</v>
       </c>
       <c r="F7">
-        <v>4.034328036793712</v>
+        <v>4.486666748889266</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.7822106663771212</v>
+        <v>0.5544417764658882</v>
       </c>
       <c r="C8">
-        <v>1.836403048259028</v>
+        <v>2.186465380261041</v>
       </c>
       <c r="D8">
-        <v>16.36623743788394</v>
+        <v>21.15812832357595</v>
       </c>
       <c r="E8">
-        <v>4.045520663386103</v>
+        <v>4.599796552411417</v>
       </c>
       <c r="F8">
-        <v>4.019744080550121</v>
+        <v>4.641739623038775</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.5940989821051248</v>
+        <v>0.7778321690867117</v>
       </c>
       <c r="C9">
-        <v>1.932689778747934</v>
+        <v>2.129509332268117</v>
       </c>
       <c r="D9">
-        <v>16.9873845567875</v>
+        <v>21.45336215612709</v>
       </c>
       <c r="E9">
-        <v>4.121575494490851</v>
+        <v>4.631777429467773</v>
       </c>
       <c r="F9">
-        <v>4.131849360674751</v>
+        <v>4.644055073279091</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.830600775663463</v>
+        <v>0.5115326828076273</v>
       </c>
       <c r="C10">
-        <v>1.865149275164063</v>
+        <v>2.258106810088389</v>
       </c>
       <c r="D10">
-        <v>17.27800395215996</v>
+        <v>22.44830329687462</v>
       </c>
       <c r="E10">
-        <v>4.156681843990463</v>
+        <v>4.737964045544733</v>
       </c>
       <c r="F10">
-        <v>4.12752147190327</v>
+        <v>4.793643450026643</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.5950944418594691</v>
+        <v>0.8209835931991184</v>
       </c>
       <c r="C11">
-        <v>1.827659872411423</v>
+        <v>2.178446637574815</v>
       </c>
       <c r="D11">
-        <v>17.20024814321981</v>
+        <v>23.03067534287386</v>
       </c>
       <c r="E11">
-        <v>4.147318186879301</v>
+        <v>4.799028583252433</v>
       </c>
       <c r="F11">
-        <v>4.161016494713655</v>
+        <v>4.815047847583534</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/EXPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1091893978781611</v>
+        <v>-0.3578751705562862</v>
       </c>
       <c r="C2">
-        <v>2.452823248062764</v>
+        <v>3.024458662146624</v>
       </c>
       <c r="D2">
-        <v>19.2641810097944</v>
+        <v>40.38354180535622</v>
       </c>
       <c r="E2">
-        <v>4.389097972225546</v>
+        <v>6.354804623696642</v>
       </c>
       <c r="F2">
-        <v>4.448262992299666</v>
+        <v>6.414829156315433</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.5977652040503706</v>
+        <v>0.3027393802105286</v>
       </c>
       <c r="C3">
-        <v>1.904146959540057</v>
+        <v>2.373015087887086</v>
       </c>
       <c r="D3">
-        <v>17.98508047146703</v>
+        <v>23.34018936934246</v>
       </c>
       <c r="E3">
-        <v>4.240882039324724</v>
+        <v>4.831168530422269</v>
       </c>
       <c r="F3">
-        <v>4.258099040526254</v>
+        <v>4.876157719561091</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4593734525495876</v>
+        <v>0.1995050362595803</v>
       </c>
       <c r="C4">
-        <v>2.116234692474444</v>
+        <v>2.425100243263678</v>
       </c>
       <c r="D4">
-        <v>19.0453471993615</v>
+        <v>21.07208077481318</v>
       </c>
       <c r="E4">
-        <v>4.364097524043373</v>
+        <v>4.590433615118857</v>
       </c>
       <c r="F4">
-        <v>4.403211772525009</v>
+        <v>4.639116432198105</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.6755236604910957</v>
+        <v>0.491114422551954</v>
       </c>
       <c r="C5">
-        <v>2.051568815471395</v>
+        <v>2.30617629171989</v>
       </c>
       <c r="D5">
-        <v>19.18090159300843</v>
+        <v>20.67429859926619</v>
       </c>
       <c r="E5">
-        <v>4.379600620263043</v>
+        <v>4.546899888854623</v>
       </c>
       <c r="F5">
-        <v>4.392263718217674</v>
+        <v>4.573795768127671</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4638331138298176</v>
+        <v>0.3200401550488365</v>
       </c>
       <c r="C6">
-        <v>2.158697177759521</v>
+        <v>2.334673612171998</v>
       </c>
       <c r="D6">
-        <v>20.1550692283716</v>
+        <v>21.38528161385673</v>
       </c>
       <c r="E6">
-        <v>4.489439745488473</v>
+        <v>4.624422300553522</v>
       </c>
       <c r="F6">
-        <v>4.534650022118768</v>
+        <v>4.669255825040207</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.7503312117146663</v>
+        <v>0.5611040982166942</v>
       </c>
       <c r="C7">
-        <v>2.109841542719643</v>
+        <v>2.339453670431203</v>
       </c>
       <c r="D7">
-        <v>20.06410736424963</v>
+        <v>21.47116487205351</v>
       </c>
       <c r="E7">
-        <v>4.479297641846279</v>
+        <v>4.633698832687933</v>
       </c>
       <c r="F7">
-        <v>4.486666748889266</v>
+        <v>4.656740838783429</v>
       </c>
       <c r="G7">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.5544417764658882</v>
+        <v>0.4062276606841116</v>
       </c>
       <c r="C8">
-        <v>2.186465380261041</v>
+        <v>2.380866204400757</v>
       </c>
       <c r="D8">
-        <v>21.15812832357595</v>
+        <v>22.22088215003843</v>
       </c>
       <c r="E8">
-        <v>4.599796552411417</v>
+        <v>4.713903069648168</v>
       </c>
       <c r="F8">
-        <v>4.641739623038775</v>
+        <v>4.756195553303624</v>
       </c>
       <c r="G8">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.7778321690867117</v>
+        <v>0.5824843841155368</v>
       </c>
       <c r="C9">
-        <v>2.129509332268117</v>
+        <v>2.368614004192091</v>
       </c>
       <c r="D9">
-        <v>21.45336215612709</v>
+        <v>22.52413720137466</v>
       </c>
       <c r="E9">
-        <v>4.631777429467773</v>
+        <v>4.745960092686691</v>
       </c>
       <c r="F9">
-        <v>4.644055073279091</v>
+        <v>4.771651806576584</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.5115326828076273</v>
+        <v>0.3786425555776947</v>
       </c>
       <c r="C10">
-        <v>2.258106810088389</v>
+        <v>2.491417790537439</v>
       </c>
       <c r="D10">
-        <v>22.44830329687462</v>
+        <v>23.33653245265391</v>
       </c>
       <c r="E10">
-        <v>4.737964045544733</v>
+        <v>4.830790044356504</v>
       </c>
       <c r="F10">
-        <v>4.793643450026643</v>
+        <v>4.880574196876067</v>
       </c>
       <c r="G10">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.8209835931991184</v>
+        <v>0.6139585437634532</v>
       </c>
       <c r="C11">
-        <v>2.178446637574815</v>
+        <v>2.407289227759336</v>
       </c>
       <c r="D11">
-        <v>23.03067534287386</v>
+        <v>23.72539890019613</v>
       </c>
       <c r="E11">
-        <v>4.799028583252433</v>
+        <v>4.870872498864667</v>
       </c>
       <c r="F11">
-        <v>4.815047847583534</v>
+        <v>4.898675532022325</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/EXPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.5611040982166942</v>
+        <v>0.5408191021347493</v>
       </c>
       <c r="C7">
-        <v>2.339453670431203</v>
+        <v>2.531376869170928</v>
       </c>
       <c r="D7">
-        <v>21.47116487205351</v>
+        <v>24.15856235852996</v>
       </c>
       <c r="E7">
-        <v>4.633698832687933</v>
+        <v>4.915136046797683</v>
       </c>
       <c r="F7">
-        <v>4.656740838783429</v>
+        <v>4.954590293174489</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4062276606841116</v>
+        <v>0.5926037554034844</v>
       </c>
       <c r="C8">
-        <v>2.380866204400757</v>
+        <v>2.592646376122079</v>
       </c>
       <c r="D8">
-        <v>22.22088215003843</v>
+        <v>25.19591940884908</v>
       </c>
       <c r="E8">
-        <v>4.713903069648168</v>
+        <v>5.019553706142517</v>
       </c>
       <c r="F8">
-        <v>4.756195553303624</v>
+        <v>5.057219379343858</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.5824843841155368</v>
+        <v>0.6352104498595522</v>
       </c>
       <c r="C9">
-        <v>2.368614004192091</v>
+        <v>3.485517187853179</v>
       </c>
       <c r="D9">
-        <v>22.52413720137466</v>
+        <v>41.44872118360328</v>
       </c>
       <c r="E9">
-        <v>4.745960092686691</v>
+        <v>6.438068125113564</v>
       </c>
       <c r="F9">
-        <v>4.771651806576584</v>
+        <v>6.573089385636792</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3786425555776947</v>
+        <v>-1.161731967122482</v>
       </c>
       <c r="C10">
-        <v>2.491417790537439</v>
+        <v>3.357451723839908</v>
       </c>
       <c r="D10">
-        <v>23.33653245265391</v>
+        <v>28.51140454140828</v>
       </c>
       <c r="E10">
-        <v>4.830790044356504</v>
+        <v>5.339607152348221</v>
       </c>
       <c r="F10">
-        <v>4.880574196876067</v>
+        <v>5.424505998350313</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.6139585437634532</v>
+        <v>-0.3568048824601059</v>
       </c>
       <c r="C11">
-        <v>2.407289227759336</v>
+        <v>2.794051366433416</v>
       </c>
       <c r="D11">
-        <v>23.72539890019613</v>
+        <v>9.435265004421183</v>
       </c>
       <c r="E11">
-        <v>4.870872498864667</v>
+        <v>3.07168764760045</v>
       </c>
       <c r="F11">
-        <v>4.898675532022325</v>
+        <v>3.411003386152271</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
